--- a/Mapper/SecurityGroup.xlsx
+++ b/Mapper/SecurityGroup.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Generic::VM::SecurityGroup</t>
   </si>
@@ -39,16 +39,10 @@
     <t>GroupDescription</t>
   </si>
   <si>
-    <t>ingress_rules</t>
-  </si>
-  <si>
     <t>rules</t>
   </si>
   <si>
     <t>SecurityGroupIngress</t>
-  </si>
-  <si>
-    <t>egress_rules</t>
   </si>
   <si>
     <t>SecurityGroupEgress</t>
@@ -472,7 +466,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +481,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -502,15 +496,15 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -522,18 +516,18 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -545,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
